--- a/Scripts/DataScience/TantargyJegyek.xlsx
+++ b/Scripts/DataScience/TantargyJegyek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>tori</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>nev</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Sipos Merse Zalan</t>
+  </si>
+  <si>
+    <t>Dioszegi Kristof</t>
   </si>
 </sst>
 </file>
@@ -147,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -430,9 +446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -540,6 +558,51 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -588,6 +651,106 @@
         <v>2</v>
       </c>
       <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
     </row>

--- a/Scripts/DataScience/TantargyJegyek.xlsx
+++ b/Scripts/DataScience/TantargyJegyek.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\SimpleProjects\Scripts\DataScience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\Python\SimpleProjects\Scripts\DataScience\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="2" r:id="rId1"/>
@@ -162,10 +162,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -449,12 +456,15 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -504,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -554,203 +564,203 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="2">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
         <v>5</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
     </row>
